--- a/public/files/template.xlsx
+++ b/public/files/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cod(e)ing\dicoding challange\sentimen review\website\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X555\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576164B-0672-4D6E-B1B4-85A7FEECA7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5779C16-F446-416C-9880-72639F3682EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>tanggal</t>
   </si>
@@ -36,73 +36,19 @@
     <t>nama</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Keterangan: Pastikan kolom </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TANGGAL </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">menggunakan format </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>YYYY-MM-DD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Contoh: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2022-07-01</t>
-    </r>
-  </si>
-  <si>
-    <t>Keterangan: Nama review opsional bisa tidak perlu ditulis</t>
-  </si>
-  <si>
     <t>nama reviewer (opsional)</t>
   </si>
   <si>
     <t>ulasan reviewer (wajib)</t>
+  </si>
+  <si>
+    <t>Format  YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Polling</t>
+  </si>
+  <si>
+    <t>Makanan sangat enak</t>
   </si>
 </sst>
 </file>
@@ -112,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,27 +88,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,7 +122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,7 +343,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -434,33 +366,34 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="D2" s="3"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45598</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
